--- a/Descargas/R15_3º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Noviembre.xlsx
+++ b/Descargas/R15_3º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Noviembre.xlsx
@@ -311,7 +311,7 @@
         </is>
       </c>
       <c r="B11" s="65">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="B59" s="65">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60">
@@ -1217,17 +1217,17 @@
     <row r="102">
       <c t="inlineStr" r="A102">
         <is>
-          <t xml:space="preserve">Violacion  De Morada.</t>
+          <t xml:space="preserve">Usurpacion No Violenta (Art. 458 Codigo Penal).</t>
         </is>
       </c>
       <c r="B102" s="65">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c t="inlineStr" r="A103">
         <is>
-          <t xml:space="preserve">Violacion De Menor De 14 Años.</t>
+          <t xml:space="preserve">Violacion  De Morada.</t>
         </is>
       </c>
       <c r="B103" s="65">
@@ -1237,10 +1237,20 @@
     <row r="104">
       <c t="inlineStr" r="A104">
         <is>
+          <t xml:space="preserve">Violacion De Menor De 14 Años.</t>
+        </is>
+      </c>
+      <c r="B104" s="65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c t="inlineStr" r="A105">
+        <is>
           <t xml:space="preserve">Violación De Mayor De 14 Años.</t>
         </is>
       </c>
-      <c r="B104" s="65">
+      <c r="B105" s="65">
         <v>1</v>
       </c>
     </row>
